--- a/genshin/481885035575345599_2021-01-19_14-00-03.xlsx
+++ b/genshin/481885035575345599_2021-01-19_14-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-01-25 12:38:16</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44221.52657407407</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -611,10 +625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-01-22 12:44:29</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44218.53089120371</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -678,10 +690,8 @@
           <t>3973699294</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-01-21 23:36:12</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44217.98347222222</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -749,10 +759,8 @@
           <t>3977220405</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-01-20 21:55:10</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44216.91331018518</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -816,10 +824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-01-20 18:23:18</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44216.76618055555</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -891,10 +897,8 @@
           <t>3974406376</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-01-20 12:41:21</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44216.52871527777</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -966,10 +970,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-01-20 12:25:54</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44216.51798611111</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1041,10 +1043,8 @@
           <t>3971612877</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-01-20 11:48:06</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44216.49173611111</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1116,10 +1116,8 @@
           <t>3971612877</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-01-20 11:38:18</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44216.48493055555</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1187,10 +1185,8 @@
           <t>3974406376</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-01-20 11:00:54</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44216.45895833334</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1258,10 +1254,8 @@
           <t>3974465827</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-01-20 10:53:53</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44216.45408564815</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1329,10 +1323,8 @@
           <t>3974406376</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-01-20 10:38:36</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44216.44347222222</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1404,10 +1396,8 @@
           <t>3974406376</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-01-20 10:35:27</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44216.44128472222</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1475,10 +1465,8 @@
           <t>3974359383</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-01-20 10:23:23</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44216.4329050926</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1546,10 +1534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-01-20 09:49:23</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44216.40929398148</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1613,10 +1599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-01-20 09:47:47</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44216.40818287037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1680,10 +1664,8 @@
           <t>3971612877</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-01-20 09:38:59</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44216.40207175926</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1755,10 +1737,8 @@
           <t>3971112461</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-01-20 08:37:46</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44216.35956018518</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1822,10 +1802,8 @@
           <t>3971612877</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-01-20 08:37:09</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44216.35913194445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1893,10 +1871,8 @@
           <t>3971612877</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-01-20 08:30:19</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44216.35438657407</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1968,10 +1944,8 @@
           <t>3970983878</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-01-20 08:03:03</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44216.33545138889</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2047,10 +2021,8 @@
           <t>3970983878</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-01-20 07:58:11</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44216.33207175926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2118,10 +2090,8 @@
           <t>3971112461</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-01-20 07:37:46</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44216.31789351852</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2197,10 +2167,8 @@
           <t>3971112461</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-01-20 03:32:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44216.14773148148</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2272,10 +2240,8 @@
           <t>3973707400</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-01-20 01:51:15</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44216.07725694445</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2343,10 +2309,8 @@
           <t>3973699294</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-01-20 01:50:39</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44216.07684027778</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2414,10 +2378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-01-20 00:52:06</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44216.03618055556</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2489,10 +2451,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-01-20 00:41:07</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44216.02855324074</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2560,10 +2520,8 @@
           <t>3971611005</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-01-19 23:34:00</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44215.98194444444</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2631,10 +2589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-01-19 23:04:32</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44215.96148148148</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2698,10 +2654,8 @@
           <t>3971612877</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-01-19 22:25:49</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44215.9345949074</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2769,10 +2723,8 @@
           <t>3971811707</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-01-19 22:24:23</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44215.93359953703</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2840,10 +2792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-01-19 22:22:18</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44215.93215277778</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2911,10 +2861,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-01-19 22:19:58</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44215.93053240741</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2991,10 +2939,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-01-19 22:18:17</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44215.92936342592</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3070,10 +3016,8 @@
           <t>3972828357</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-01-19 22:11:05</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44215.92436342593</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3137,10 +3081,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-01-19 22:09:12</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44215.92305555556</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3216,10 +3158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-01-19 21:34:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44215.89905092592</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3279,10 +3219,8 @@
           <t>3971112461</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-01-19 21:32:20</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44215.89745370371</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3359,10 +3297,8 @@
           <t>3971927028</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-01-19 21:16:28</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44215.88643518519</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3438,10 +3374,8 @@
           <t>3972499740</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-01-19 21:04:07</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44215.8778587963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3505,10 +3439,8 @@
           <t>3971157533</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-01-19 20:50:56</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44215.8687037037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3584,10 +3516,8 @@
           <t>3972112635</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-01-19 19:39:39</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44215.81920138889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3663,10 +3593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-01-19 19:22:49</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44215.80751157407</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3734,10 +3662,8 @@
           <t>3971927028</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:59:23</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44215.79123842593</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3813,10 +3739,8 @@
           <t>3971925883</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:58:37</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44215.79070601852</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3888,10 +3812,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:56:36</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44215.78930555555</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3963,10 +3885,8 @@
           <t>3971877038</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:47:54</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44215.78326388889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4034,10 +3954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:46:37</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44215.78237268519</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4105,10 +4023,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:36:24</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44215.77527777778</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4184,10 +4100,8 @@
           <t>3971811707</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:34:03</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44215.77364583333</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4260,10 +4174,8 @@
           <t>3971784273</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:29:04</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44215.77018518518</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4339,10 +4251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:28:36</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44215.76986111111</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4410,10 +4320,8 @@
           <t>3971747552</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:27:40</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44215.76921296296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4485,10 +4393,8 @@
           <t>3971764242</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:25:43</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44215.76785879629</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4552,10 +4458,8 @@
           <t>3970958336</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:25:31</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44215.76771990741</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4623,10 +4527,8 @@
           <t>3971747552</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:21:13</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44215.7647337963</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4702,10 +4604,8 @@
           <t>3971747242</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:21:00</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44215.76458333333</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4775,10 +4675,8 @@
           <t>3971152674</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:10:40</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44215.75740740741</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4846,10 +4744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:06:37</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44215.7545949074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4913,10 +4809,8 @@
           <t>3971152674</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:05:45</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44215.75399305556</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4992,10 +4886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-01-19 18:02:24</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44215.75166666666</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5059,10 +4951,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:58:52</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44215.74921296296</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5138,10 +5028,8 @@
           <t>3970913779</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:54:08</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44215.74592592593</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5205,10 +5093,8 @@
           <t>3971612877</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:49:43</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44215.74285879629</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -5280,10 +5166,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:48:32</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44215.74203703704</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5355,10 +5239,8 @@
           <t>3971611005</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:48:21</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44215.74190972222</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5430,10 +5312,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:47:12</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44215.74111111111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5505,10 +5385,8 @@
           <t>3971589996</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:44:56</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44215.73953703704</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5580,10 +5458,8 @@
           <t>3971045636</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:44:30</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44215.73923611111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5651,10 +5527,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:42:39</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44215.73795138889</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5730,10 +5604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:35:42</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44215.733125</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5797,10 +5669,8 @@
           <t>3971555395</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:34:10</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44215.73206018518</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5868,10 +5738,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:27:22</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44215.72733796296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5935,10 +5803,8 @@
           <t>3971178705</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:26:34</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44215.72678240741</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6002,10 +5868,8 @@
           <t>3971520550</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:24:47</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44215.72554398148</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6073,10 +5937,8 @@
           <t>3971503362</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:22:14</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44215.72377314815</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6152,10 +6014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:21:39</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44215.72336805556</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6219,10 +6079,8 @@
           <t>3971501093</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:20:27</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44215.72253472222</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6294,10 +6152,8 @@
           <t>3971226195</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:19:22</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44215.72178240741</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6365,10 +6221,8 @@
           <t>3971492784</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:18:24</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44215.72111111111</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6432,10 +6286,8 @@
           <t>3971226195</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:17:45</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44215.72065972222</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6503,10 +6355,8 @@
           <t>3971481417</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:16:59</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44215.72012731482</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6578,10 +6428,8 @@
           <t>3971112461</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:16:11</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44215.71957175926</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -6645,10 +6493,8 @@
           <t>3971481417</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:16:02</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44215.71946759259</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6720,10 +6566,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:15:59</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44215.71943287037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6799,10 +6643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:15:50</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44215.7193287037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6866,10 +6708,8 @@
           <t>3971466322</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:15:36</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44215.71916666667</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6941,10 +6781,8 @@
           <t>3971481417</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:15:31</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44215.71910879629</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -7012,10 +6850,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:14:18</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44215.71826388889</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7079,10 +6915,8 @@
           <t>3971466322</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:11:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44215.71628472222</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7146,10 +6980,8 @@
           <t>3971466134</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:11:19</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44215.71619212963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7225,10 +7057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:10:52</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44215.71587962963</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7296,10 +7126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:09:22</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44215.71483796297</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7371,10 +7199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:08:52</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44215.71449074074</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7442,10 +7268,8 @@
           <t>3971404841</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:08:46</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44215.7144212963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7521,10 +7345,8 @@
           <t>3971439506</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:06:05</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44215.71255787037</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7592,10 +7414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:05:56</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44215.7124537037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7663,10 +7483,8 @@
           <t>3971350466</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:04:05</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44215.71116898148</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7738,10 +7556,8 @@
           <t>3971366866</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:02:12</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44215.70986111111</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7813,10 +7629,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-01-19 17:00:00</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44215.70833333334</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7897,10 +7711,8 @@
           <t>3971226195</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:59:30</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44215.70798611111</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7964,10 +7776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:58:38</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44215.70738425926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8043,10 +7853,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:57:30</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44215.70659722222</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8122,10 +7930,8 @@
           <t>3971404841</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:54:54</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44215.70479166666</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8194,10 +8000,8 @@
           <t>3971399319</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:54:31</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44215.70452546296</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8273,10 +8077,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:53:37</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44215.70390046296</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8340,10 +8142,8 @@
           <t>3971384831</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:50:34</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44215.70178240741</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8415,10 +8215,8 @@
           <t>3971384603</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:50:23</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44215.70165509259</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8494,10 +8292,8 @@
           <t>3971045636</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:48:53</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44215.70061342593</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8573,10 +8369,8 @@
           <t>3971111473</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:48:32</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44215.70037037037</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8652,10 +8446,8 @@
           <t>3971152674</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:47:44</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44215.69981481481</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8719,10 +8511,8 @@
           <t>3971366866</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:43:31</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44215.69688657407</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8790,10 +8580,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:39:08</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44215.69384259259</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8865,10 +8653,8 @@
           <t>3970958336</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:38:06</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44215.693125</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8936,10 +8722,8 @@
           <t>3971350466</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:37:50</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44215.69293981481</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -9007,10 +8791,8 @@
           <t>3971344615</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:37:21</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44215.69260416667</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9082,10 +8864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:36:20</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44215.69189814815</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9157,10 +8937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:36:16</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44215.69185185185</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9236,10 +9014,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:36:11</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44215.69179398148</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9311,10 +9087,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:35:37</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44215.69140046297</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9378,10 +9152,8 @@
           <t>3971330372</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:32:08</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44215.68898148148</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9453,10 +9225,8 @@
           <t>3971142224</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:28:35</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44215.68651620371</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9520,10 +9290,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:25:09</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44215.68413194444</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9599,10 +9367,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:24:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44215.68383101852</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9674,10 +9440,8 @@
           <t>3971310735</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:24:38</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44215.68377314815</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9741,10 +9505,8 @@
           <t>3971306778</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:24:36</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44215.68375</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9812,10 +9574,8 @@
           <t>3971286951</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:19:58</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44215.68053240741</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9875,10 +9635,8 @@
           <t>3971128988</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:16:50</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44215.67835648148</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9950,10 +9708,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:16:41</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44215.67825231481</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10017,10 +9773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:11:48</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44215.67486111111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10084,10 +9838,8 @@
           <t>3970913779</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:11:24</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44215.67458333333</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10155,10 +9907,8 @@
           <t>3971111473</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:10:33</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44215.67399305556</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10234,10 +9984,8 @@
           <t>3971254840</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:09:50</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44215.67349537037</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10305,10 +10053,8 @@
           <t>3971191108</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:09:37</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44215.67334490741</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10384,10 +10130,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:04:38</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44215.66988425926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10451,10 +10195,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:04:28</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44215.66976851852</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10522,10 +10264,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:04:07</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44215.66952546296</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10589,10 +10329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:03:58</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44215.6694212963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10660,10 +10398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:01:43</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44215.6678587963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10731,10 +10467,8 @@
           <t>3971228026</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:01:42</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44215.66784722222</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10802,10 +10536,8 @@
           <t>3970941631</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:00:15</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44215.66684027778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10873,10 +10605,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-01-19 16:00:12</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44215.66680555556</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10948,10 +10678,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:59:57</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44215.66663194444</v>
       </c>
       <c r="I145" t="n">
         <v>5</v>
@@ -11023,10 +10751,8 @@
           <t>3971226195</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:59:57</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44215.66663194444</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11094,10 +10820,8 @@
           <t>3971219869</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:59:18</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44215.66618055556</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11165,10 +10889,8 @@
           <t>3971223657</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:59:07</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44215.66605324074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11232,10 +10954,8 @@
           <t>3971223071</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:58:35</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44215.66568287037</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11311,10 +11031,8 @@
           <t>3971217367</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:56:55</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44215.66452546296</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11386,10 +11104,8 @@
           <t>3971211902</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:55:48</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44215.66375</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11466,10 +11182,8 @@
           <t>3971181044</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:55:21</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44215.6634375</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11545,10 +11259,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:55:17</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44215.66339120371</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11620,10 +11332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:54:58</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44215.6631712963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11699,10 +11409,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:52:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44215.6611574074</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11774,10 +11482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:51:58</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44215.66108796297</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11845,10 +11551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:51:02</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44215.66043981481</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -11912,10 +11616,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:50:47</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44215.6602662037</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11987,10 +11689,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:50:46</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44215.66025462963</v>
       </c>
       <c r="I159" t="n">
         <v>11</v>
@@ -12062,10 +11762,8 @@
           <t>3971134514</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:50:24</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44215.66</v>
       </c>
       <c r="I160" t="n">
         <v>5</v>
@@ -12141,10 +11839,8 @@
           <t>3971178705</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:50:24</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44215.66</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12216,10 +11912,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:49:39</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44215.65947916666</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12291,10 +11985,8 @@
           <t>3971028976</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:48:46</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44215.65886574074</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12362,10 +12054,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:48:40</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44215.65879629629</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12429,10 +12119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:47:41</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44215.65811342592</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12496,10 +12184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:47:40</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44215.65810185186</v>
       </c>
       <c r="I166" t="n">
         <v>17</v>
@@ -12563,10 +12249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:47:23</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44215.65790509259</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12631,10 +12315,8 @@
           <t>3971191108</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:47:16</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44215.65782407407</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12712,10 +12394,8 @@
           <t>3971166810</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:47:14</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44215.65780092592</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12791,10 +12471,8 @@
           <t>3971005963</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:47:01</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44215.65765046296</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12870,10 +12548,8 @@
           <t>3971112461</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:46:02</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44215.65696759259</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -12937,10 +12613,8 @@
           <t>3971062319</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:45:20</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44215.65648148148</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13016,10 +12690,8 @@
           <t>3970941631</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:45:17</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44215.65644675926</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13091,10 +12763,8 @@
           <t>3971181044</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:45:08</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44215.65634259259</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13158,10 +12828,8 @@
           <t>3971178705</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:44:56</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44215.6562037037</v>
       </c>
       <c r="I175" t="n">
         <v>8</v>
@@ -13225,10 +12893,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:44:48</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44215.65611111111</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13296,10 +12962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:44:17</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44215.65575231481</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13367,10 +13031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:44:11</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44215.65568287037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13434,10 +13096,8 @@
           <t>3971169289</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:43:22</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44215.65511574074</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13501,10 +13161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:42:54</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44215.65479166667</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13572,10 +13230,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:42:53</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44215.65478009259</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13653,10 +13309,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:42:52</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44215.65476851852</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13724,10 +13378,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:41:31</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44215.65383101852</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13791,10 +13443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:41:26</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44215.65377314815</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13870,10 +13520,8 @@
           <t>3971166810</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:40:52</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44215.65337962963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13937,10 +13585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:39:23</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44215.65234953703</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14016,10 +13662,8 @@
           <t>3971157533</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:37:25</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44215.65098379629</v>
       </c>
       <c r="I187" t="n">
         <v>7</v>
@@ -14083,10 +13727,8 @@
           <t>3971152674</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:36:45</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44215.65052083333</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14154,10 +13796,8 @@
           <t>3971160085</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:36:44</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44215.65050925926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14225,10 +13865,8 @@
           <t>3971093671</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:36:31</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44215.65035879629</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14296,10 +13934,8 @@
           <t>3971156164</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:36:07</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44215.65008101852</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14373,10 +14009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:35:38</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44215.64974537037</v>
       </c>
       <c r="I192" t="n">
         <v>14</v>
@@ -14444,10 +14078,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:34:57</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44215.64927083333</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -14519,10 +14151,8 @@
           <t>3971143316</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:33:29</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44215.64825231482</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14604,10 +14234,8 @@
           <t>3971142224</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:32:26</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44215.64752314815</v>
       </c>
       <c r="I195" t="n">
         <v>4</v>
@@ -14679,10 +14307,8 @@
           <t>3971134514</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:31:15</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44215.64670138889</v>
       </c>
       <c r="I196" t="n">
         <v>4</v>
@@ -14750,10 +14376,8 @@
           <t>3971130522</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:30:11</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44215.64596064815</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14821,10 +14445,8 @@
           <t>3971120402</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:29:47</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44215.64568287037</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14888,10 +14510,8 @@
           <t>3971045636</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:29:43</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44215.64563657407</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14959,10 +14579,8 @@
           <t>3971129161</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:29:26</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44215.64543981481</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15040,10 +14658,8 @@
           <t>3971132629</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:29:23</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44215.64540509259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15111,10 +14727,8 @@
           <t>3971128988</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:29:17</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44215.64533564815</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -15190,10 +14804,8 @@
           <t>3970982936</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:27:26</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44215.64405092593</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15265,10 +14877,8 @@
           <t>3971130522</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:27:17</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44215.64394675926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15344,10 +14954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:26:52</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44215.64365740741</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15415,10 +15023,8 @@
           <t>3971045636</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:26:29</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44215.6433912037</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15497,10 +15103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:26:17</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44215.64325231482</v>
       </c>
       <c r="I207" t="n">
         <v>35</v>
@@ -15568,10 +15172,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:26:01</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44215.64306712963</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -15639,10 +15241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:25:49</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44215.64292824074</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15718,10 +15318,8 @@
           <t>3971118932</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:25:45</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44215.64288194444</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15797,10 +15395,8 @@
           <t>3971118599</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:25:26</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44215.64266203704</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15872,10 +15468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:25:19</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44215.64258101852</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15947,10 +15541,8 @@
           <t>3971114294</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:24:36</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44215.64208333333</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16010,10 +15602,8 @@
           <t>3971120402</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:24:18</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44215.641875</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16077,10 +15667,8 @@
           <t>3971028976</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:24:17</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44215.64186342592</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16156,10 +15744,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:23:54</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44215.64159722222</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16231,10 +15817,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:23:23</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44215.64123842592</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16312,10 +15896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:23:22</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44215.64122685185</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16383,10 +15965,8 @@
           <t>3971112902</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:23:16</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44215.64115740741</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16458,10 +16038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:23:13</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44215.64112268519</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16539,10 +16117,8 @@
           <t>3971112461</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:22:52</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44215.64087962963</v>
       </c>
       <c r="I221" t="n">
         <v>25</v>
@@ -16618,10 +16194,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:22:42</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44215.64076388889</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16689,10 +16263,8 @@
           <t>3971112166</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:22:35</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44215.64068287037</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16756,10 +16328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:22:34</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44215.6406712963</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16827,10 +16397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:21:55</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44215.64021990741</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -16894,10 +16462,8 @@
           <t>3971111473</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:21:52</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44215.64018518518</v>
       </c>
       <c r="I226" t="n">
         <v>13</v>
@@ -16957,10 +16523,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:21:52</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44215.64018518518</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17036,10 +16600,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:21:44</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44215.64009259259</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17115,10 +16677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:21:34</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44215.63997685185</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17178,10 +16738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:21:12</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44215.63972222222</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17254,10 +16812,8 @@
           <t>3971099875</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:20:17</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44215.63908564814</v>
       </c>
       <c r="I231" t="n">
         <v>15</v>
@@ -17326,10 +16882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:20:12</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44215.63902777778</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17397,10 +16951,8 @@
           <t>3971045636</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:19:45</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44215.63871527778</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17464,10 +17016,8 @@
           <t>3971099031</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:19:27</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44215.63850694444</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17531,10 +17081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:19:25</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44215.6384837963</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17610,10 +17158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:19:19</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44215.63841435185</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17681,10 +17227,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:19:08</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44215.63828703704</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17748,10 +17292,8 @@
           <t>3971105400</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:19:06</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44215.63826388889</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17827,10 +17369,8 @@
           <t>3971094221</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:17:55</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44215.63744212963</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -17906,10 +17446,8 @@
           <t>3971094017</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:17:41</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44215.63728009259</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -17973,10 +17511,8 @@
           <t>3971096955</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:17:25</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44215.6370949074</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -18044,10 +17580,8 @@
           <t>3971093671</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:17:17</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44215.63700231481</v>
       </c>
       <c r="I242" t="n">
         <v>13</v>
@@ -18115,10 +17649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:17:01</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44215.63681712963</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18182,10 +17714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:16:28</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44215.63643518519</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18261,10 +17791,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:16:21</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44215.63635416667</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18328,10 +17856,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:16:11</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44215.63623842593</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18403,10 +17929,8 @@
           <t>3971092257</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:15:51</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44215.63600694444</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18470,10 +17994,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:15:01</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44215.63542824074</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18541,10 +18063,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:14:09</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44215.63482638889</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18608,10 +18128,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:13:11</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44215.63415509259</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18675,10 +18193,8 @@
           <t>3971085877</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:12:48</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44215.63388888889</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18750,10 +18266,8 @@
           <t>3971079177</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:12:43</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44215.63383101852</v>
       </c>
       <c r="I252" t="n">
         <v>10</v>
@@ -18829,10 +18343,8 @@
           <t>3971081999</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:12:33</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44215.63371527778</v>
       </c>
       <c r="I253" t="n">
         <v>5</v>
@@ -18904,10 +18416,8 @@
           <t>3971078549</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:12:05</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44215.6333912037</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18967,10 +18477,8 @@
           <t>3971081290</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:11:52</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44215.63324074074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19034,10 +18542,8 @@
           <t>3971032845</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:11:50</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44215.63321759259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19113,10 +18619,8 @@
           <t>3971081185</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:11:46</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44215.63317129629</v>
       </c>
       <c r="I257" t="n">
         <v>6</v>
@@ -19192,10 +18696,8 @@
           <t>3971077704</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:11:15</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44215.6328125</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19263,10 +18765,8 @@
           <t>3971073684</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:10:35</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44215.63234953704</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19330,10 +18830,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:10:34</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44215.63233796296</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19401,10 +18899,8 @@
           <t>3970874696</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:10:33</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44215.63232638889</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19476,10 +18972,8 @@
           <t>3971071396</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:09:50</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44215.63182870371</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19539,10 +19033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:09:32</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44215.63162037037</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19610,10 +19102,8 @@
           <t>3971072540</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:09:28</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44215.63157407408</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19681,10 +19171,8 @@
           <t>3971072485</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:09:25</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44215.63153935185</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19760,10 +19248,8 @@
           <t>3971049457</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:09:20</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44215.63148148148</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19831,10 +19317,8 @@
           <t>3970963462</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:09:20</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44215.63148148148</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19898,10 +19382,8 @@
           <t>3971049457</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:08:49</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44215.63112268518</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19973,10 +19455,8 @@
           <t>3971071396</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:08:19</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44215.63077546296</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20040,10 +19520,8 @@
           <t>3971049457</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:08:07</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44215.63063657407</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20107,10 +19585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:07:54</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44215.63048611111</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20174,10 +19650,8 @@
           <t>3971045636</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:07:35</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44215.63026620371</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20245,10 +19719,8 @@
           <t>3971063943</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:07:32</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44215.63023148148</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20316,10 +19788,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:07:16</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44215.6300462963</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20383,10 +19853,8 @@
           <t>3971066254</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:06:54</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44215.62979166667</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20462,10 +19930,8 @@
           <t>3971062751</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:06:20</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44215.62939814815</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20541,10 +20007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:06:04</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44215.62921296297</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20604,10 +20068,8 @@
           <t>3971056799</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:05:56</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44215.62912037037</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20679,10 +20141,8 @@
           <t>3971062319</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:05:55</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44215.6291087963</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20750,10 +20210,8 @@
           <t>3971058776</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:05:42</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44215.62895833333</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20825,10 +20283,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:04:44</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44215.62828703703</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20896,10 +20352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:04:12</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44215.62791666666</v>
       </c>
       <c r="I282" t="n">
         <v>25</v>
@@ -20963,10 +20417,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:03:53</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44215.62769675926</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21026,10 +20478,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:03:46</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44215.62761574074</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21098,10 +20548,8 @@
           <t>3971056799</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:03:45</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44215.62760416666</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21165,10 +20613,8 @@
           <t>3971049457</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:03:06</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44215.62715277778</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21240,10 +20686,8 @@
           <t>3971049290</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:02:56</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44215.62703703704</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21319,10 +20763,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:01:57</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44215.62635416666</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21398,10 +20840,8 @@
           <t>3971051051</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:01:56</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44215.62634259259</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21477,10 +20917,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:01:18</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44215.62590277778</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21556,10 +20994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:00:57</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44215.62565972222</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21627,10 +21063,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-01-19 15:00:53</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44215.62561342592</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21694,10 +21128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:59:54</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44215.62493055555</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21765,10 +21197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:59:52</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44215.62490740741</v>
       </c>
       <c r="I294" t="n">
         <v>8</v>
@@ -21832,10 +21262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:59:40</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44215.62476851852</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21903,10 +21331,8 @@
           <t>3971045675</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:59:18</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44215.62451388889</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21983,10 +21409,8 @@
           <t>3971045636</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:59:15</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44215.62447916667</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22050,10 +21474,8 @@
           <t>3970992554</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:59:00</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44215.62430555555</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22125,10 +21547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:58:49</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44215.62417824074</v>
       </c>
       <c r="I299" t="n">
         <v>34</v>
@@ -22204,10 +21624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:58:36</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44215.62402777778</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -22275,10 +21693,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:58:36</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44215.62402777778</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22342,10 +21758,8 @@
           <t>3971034666</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:58:14</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44215.62377314815</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22410,10 +21824,8 @@
           <t>3971040563</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:57:31</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44215.62327546296</v>
       </c>
       <c r="I303" t="n">
         <v>12</v>
@@ -22477,10 +21889,8 @@
           <t>3971032845</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:56:59</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44215.62290509259</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22544,10 +21954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:56:42</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44215.62270833334</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22611,10 +22019,8 @@
           <t>3971032845</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:56:20</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44215.62245370371</v>
       </c>
       <c r="I306" t="n">
         <v>4</v>
@@ -22682,10 +22088,8 @@
           <t>3970888768</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:56:04</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44215.62226851852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22749,10 +22153,8 @@
           <t>3970897330</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:56:00</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44215.62222222222</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22818,10 +22220,8 @@
           <t>3971028976</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:55:58</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44215.62219907407</v>
       </c>
       <c r="I309" t="n">
         <v>71</v>
@@ -22885,10 +22285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:55:43</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44215.62202546297</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22948,10 +22346,8 @@
           <t>3971032004</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:55:28</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44215.62185185185</v>
       </c>
       <c r="I311" t="n">
         <v>5</v>
@@ -23023,10 +22419,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:55:06</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44215.62159722222</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23102,10 +22496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:54:41</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44215.62130787037</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23165,10 +22557,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:54:17</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44215.6210300926</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23236,10 +22626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:54:14</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44215.62099537037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23307,10 +22695,8 @@
           <t>3971019900</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:53:12</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44215.62027777778</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23378,10 +22764,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:52:14</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44215.61960648148</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23445,10 +22829,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:51:48</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44215.61930555556</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23512,10 +22894,8 @@
           <t>3970870725</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:51:47</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44215.61929398148</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23579,10 +22959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:51:45</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44215.61927083333</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23658,10 +23036,8 @@
           <t>3971020617</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:51:32</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44215.61912037037</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23729,10 +23105,8 @@
           <t>3971020607</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:51:32</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44215.61912037037</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23808,10 +23182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:51:22</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44215.61900462963</v>
       </c>
       <c r="I323" t="n">
         <v>13</v>
@@ -23879,10 +23251,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:51:09</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44215.61885416666</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23946,10 +23316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:50:50</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44215.61863425926</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24017,10 +23385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:49:52</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44215.61796296296</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24092,10 +23458,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:49:51</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44215.61795138889</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24171,10 +23535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:49:39</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44215.6178125</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24246,10 +23608,8 @@
           <t>3971016138</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:49:21</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44215.61760416667</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24317,10 +23677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:49:15</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44215.61753472222</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24392,10 +23750,8 @@
           <t>3971007844</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:48:43</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44215.61716435185</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24471,10 +23827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:48:39</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44215.61711805555</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24542,10 +23896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:48:35</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44215.61707175926</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24617,10 +23969,8 @@
           <t>3971004756</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:47:57</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44215.61663194445</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24694,10 +24044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:47:48</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44215.61652777778</v>
       </c>
       <c r="I335" t="n">
         <v>56</v>
@@ -24773,10 +24121,8 @@
           <t>3971004297</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:47:29</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44215.61630787037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24852,10 +24198,8 @@
           <t>3971010672</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:47:27</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44215.61628472222</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -24931,10 +24275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:47:19</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44215.61619212963</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -25006,10 +24348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:47:13</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44215.61612268518</v>
       </c>
       <c r="I339" t="n">
         <v>6</v>
@@ -25085,10 +24425,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:46:55</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44215.61591435185</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25152,10 +24490,8 @@
           <t>3971005963</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:46:48</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44215.61583333334</v>
       </c>
       <c r="I341" t="n">
         <v>17</v>
@@ -25219,10 +24555,8 @@
           <t>3971005896</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:46:45</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44215.61579861111</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25294,10 +24628,8 @@
           <t>3970970128</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:46:37</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44215.61570601852</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25373,10 +24705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:46:23</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44215.61554398148</v>
       </c>
       <c r="I344" t="n">
         <v>3</v>
@@ -25452,10 +24782,8 @@
           <t>3970999524</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:46:20</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44215.61550925926</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25529,10 +24857,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:46:19</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44215.61549768518</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25608,10 +24934,8 @@
           <t>3971005464</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:46:19</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44215.61549768518</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25671,10 +24995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:45:25</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44215.61487268518</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25750,10 +25072,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:44:52</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44215.61449074074</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25825,10 +25145,8 @@
           <t>3970998079</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:44:51</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44215.61447916667</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25904,10 +25222,8 @@
           <t>3970958336</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:44:25</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44215.61417824074</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25971,10 +25287,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:43:48</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44215.61375</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26046,10 +25360,8 @@
           <t>3970992554</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:43:25</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44215.6134837963</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26125,10 +25437,8 @@
           <t>3970996565</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:43:22</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44215.61344907407</v>
       </c>
       <c r="I354" t="n">
         <v>27</v>
@@ -26205,10 +25515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:41:38</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44215.61224537037</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26276,10 +25584,8 @@
           <t>3970960936</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:41:32</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44215.61217592593</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26339,10 +25645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:41:12</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44215.61194444444</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26410,10 +25714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:41:07</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44215.61188657407</v>
       </c>
       <c r="I358" t="n">
         <v>3</v>
@@ -26485,10 +25787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:41:00</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44215.61180555556</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26548,10 +25848,8 @@
           <t>3970983878</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:40:44</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44215.61162037037</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26627,10 +25925,8 @@
           <t>3970979644</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:40:36</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44215.61152777778</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26702,10 +25998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:40:18</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44215.61131944445</v>
       </c>
       <c r="I362" t="n">
         <v>102</v>
@@ -26777,10 +26071,8 @@
           <t>3970958336</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:40:18</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44215.61131944445</v>
       </c>
       <c r="I363" t="n">
         <v>11</v>
@@ -26852,10 +26144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:40:15</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44215.61128472222</v>
       </c>
       <c r="I364" t="n">
         <v>14</v>
@@ -26923,10 +26213,8 @@
           <t>3970987087</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:40:09</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44215.61121527778</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26990,10 +26278,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:39:55</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44215.61105324074</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27057,10 +26343,8 @@
           <t>3970982936</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:39:49</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44215.61098379629</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27128,10 +26412,8 @@
           <t>3970978494</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:39:24</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44215.61069444445</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27207,10 +26489,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:38:28</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44215.61004629629</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27286,10 +26566,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:37:55</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44215.60966435185</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27361,10 +26639,8 @@
           <t>3970980861</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:37:47</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44215.60957175926</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27440,10 +26716,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:36:36</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44215.60875</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27519,10 +26793,8 @@
           <t>3970969464</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:36:25</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44215.60862268518</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27590,10 +26862,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:36:07</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44215.60841435185</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27669,10 +26939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:36:03</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44215.60836805555</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27744,10 +27012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:35:17</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44215.60783564814</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27819,10 +27085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:35:02</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44215.60766203704</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27886,10 +27150,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:34:48</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44215.6075</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27957,10 +27219,8 @@
           <t>3970963462</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:34:29</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44215.60728009259</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28024,10 +27284,8 @@
           <t>3970960936</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:33:26</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44215.60655092593</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28103,10 +27361,8 @@
           <t>3970970128</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:33:09</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44215.60635416667</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28178,10 +27434,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:32:28</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44215.60587962963</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28257,10 +27511,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:32:05</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44215.60561342593</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28332,10 +27584,8 @@
           <t>3970960936</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:32:02</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44215.6055787037</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28395,10 +27645,8 @@
           <t>3970952411</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:31:38</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44215.60530092593</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28462,10 +27710,8 @@
           <t>3970941631</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:31:33</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44215.60524305556</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28533,10 +27779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:31:25</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44215.60515046296</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28612,10 +27856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:31:23</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44215.60512731481</v>
       </c>
       <c r="I388" t="n">
         <v>12</v>
@@ -28679,10 +27921,8 @@
           <t>3970958336</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:31:23</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44215.60512731481</v>
       </c>
       <c r="I389" t="n">
         <v>6</v>
@@ -28746,10 +27986,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:30:50</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44215.60474537037</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28813,10 +28051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:30:20</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44215.60439814815</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28892,10 +28128,8 @@
           <t>3970957174</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:30:14</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44215.6043287037</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28967,10 +28201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:30:00</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44215.60416666666</v>
       </c>
       <c r="I393" t="n">
         <v>61</v>
@@ -29038,10 +28270,8 @@
           <t>3970948610</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:29:52</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44215.60407407407</v>
       </c>
       <c r="I394" t="n">
         <v>2</v>
@@ -29113,10 +28343,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:29:39</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44215.60392361111</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29192,10 +28420,8 @@
           <t>3970952411</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:29:34</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44215.60386574074</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29273,10 +28499,8 @@
           <t>3970951951</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:29:08</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44215.60356481482</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29340,10 +28564,8 @@
           <t>3970947476</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:28:49</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44215.60334490741</v>
       </c>
       <c r="I398" t="n">
         <v>13</v>
@@ -29419,10 +28641,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:28:46</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44215.60331018519</v>
       </c>
       <c r="I399" t="n">
         <v>2</v>
@@ -29494,10 +28714,8 @@
           <t>3970919356</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:28:21</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44215.60302083333</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29573,10 +28791,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:28:19</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44215.60299768519</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29652,10 +28868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:28:18</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44215.60298611111</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29731,10 +28945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:27:13</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44215.60223379629</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -29806,10 +29018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:27:09</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44215.6021875</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -29873,10 +29083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:26:57</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44215.60204861111</v>
       </c>
       <c r="I405" t="n">
         <v>4</v>
@@ -29940,10 +29148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:26:57</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44215.60204861111</v>
       </c>
       <c r="I406" t="n">
         <v>4</v>
@@ -30011,10 +29217,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:26:30</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44215.60173611111</v>
       </c>
       <c r="I407" t="n">
         <v>4</v>
@@ -30078,10 +29282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:26:23</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44215.60165509259</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -30145,10 +29347,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:26:12</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44215.60152777778</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30224,10 +29424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:26:11</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44215.6015162037</v>
       </c>
       <c r="I410" t="n">
         <v>2</v>
@@ -30291,10 +29489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:26:10</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44215.60150462963</v>
       </c>
       <c r="I411" t="n">
         <v>20</v>
@@ -30370,10 +29566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:25:53</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44215.60130787037</v>
       </c>
       <c r="I412" t="n">
         <v>18</v>
@@ -30441,10 +29635,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:25:28</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44215.60101851852</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30508,10 +29700,8 @@
           <t>3970938033</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:25:19</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44215.60091435185</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30583,10 +29773,8 @@
           <t>3970919356</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:25:03</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44215.60072916667</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30662,10 +29850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:46</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44215.60053240741</v>
       </c>
       <c r="I416" t="n">
         <v>3</v>
@@ -30741,10 +29927,8 @@
           <t>3970941631</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:46</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44215.60053240741</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -30820,10 +30004,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:30</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44215.60034722222</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30899,10 +30081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:23</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44215.60026620371</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30970,10 +30150,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:13</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44215.60015046296</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31037,10 +30215,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:12</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44215.60013888889</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31116,10 +30292,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:07</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44215.60008101852</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31187,10 +30361,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:06</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44215.60006944444</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31254,10 +30426,8 @@
           <t>3970940842</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:24:03</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44215.60003472222</v>
       </c>
       <c r="I424" t="n">
         <v>2</v>
@@ -31329,10 +30499,8 @@
           <t>3970919356</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:23:58</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44215.59997685185</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31408,10 +30576,8 @@
           <t>3970940390</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:23:37</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44215.5997337963</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31487,10 +30653,8 @@
           <t>3970919356</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:23:29</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44215.59964120371</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31554,10 +30718,8 @@
           <t>3970874696</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:23:27</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44215.59961805555</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31617,10 +30779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:23:24</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44215.59958333334</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31688,10 +30848,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:23:21</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44215.59954861111</v>
       </c>
       <c r="I430" t="n">
         <v>4</v>
@@ -31759,10 +30917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:23:05</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44215.59936342593</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31830,10 +30986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:23:02</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44215.59932870371</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31909,10 +31063,8 @@
           <t>3970929728</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:22:57</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44215.59927083334</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -31980,10 +31132,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:22:46</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44215.59914351852</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32059,10 +31209,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:22:29</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44215.59894675926</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32126,10 +31274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:22:21</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44215.59885416667</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32197,10 +31343,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:22:18</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44215.59881944444</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32264,10 +31408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:22:15</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44215.59878472222</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32343,10 +31485,8 @@
           <t>3970919356</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:22:11</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44215.59873842593</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32414,10 +31554,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:22:04</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44215.5986574074</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32489,10 +31627,8 @@
           <t>3970924563</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:21:52</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44215.59851851852</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32560,10 +31696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:21:41</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44215.5983912037</v>
       </c>
       <c r="I442" t="n">
         <v>9</v>
@@ -32627,10 +31761,8 @@
           <t>3970919356</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:20:53</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44215.59783564815</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32706,10 +31838,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:20:52</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44215.59782407407</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32785,10 +31915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:20:39</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44215.59767361111</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32856,10 +31984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:20:05</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44215.5972800926</v>
       </c>
       <c r="I446" t="n">
         <v>43</v>
@@ -32935,10 +32061,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:59</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44215.59721064815</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33006,10 +32130,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:59</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44215.59721064815</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33073,10 +32195,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:49</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44215.59709490741</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33144,10 +32264,8 @@
           <t>3970918038</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:38</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44215.5969675926</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33223,10 +32341,8 @@
           <t>3970922255</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:35</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44215.59693287037</v>
       </c>
       <c r="I451" t="n">
         <v>2</v>
@@ -33294,10 +32410,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:33</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44215.59690972222</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33357,10 +32471,8 @@
           <t>3970926131</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:25</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44215.59681712963</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33432,10 +32544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:12</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44215.59666666666</v>
       </c>
       <c r="I454" t="n">
         <v>9</v>
@@ -33505,10 +32615,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:19:09</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44215.59663194444</v>
       </c>
       <c r="I455" t="n">
         <v>2</v>
@@ -33580,10 +32688,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:59</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44215.5965162037</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33647,10 +32753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:53</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44215.59644675926</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33714,10 +32818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:48</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44215.59638888889</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33781,10 +32883,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:34</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44215.59622685185</v>
       </c>
       <c r="I459" t="n">
         <v>4</v>
@@ -33848,10 +32948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:27</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44215.59614583333</v>
       </c>
       <c r="I460" t="n">
         <v>352</v>
@@ -33927,10 +33025,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:24</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44215.59611111111</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33998,10 +33094,8 @@
           <t>3970916654</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:18</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44215.59604166666</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34065,10 +33159,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:10</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44215.59594907407</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34144,10 +33236,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:18:00</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44215.59583333333</v>
       </c>
       <c r="I464" t="n">
         <v>3</v>
@@ -34223,10 +33313,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:58</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44215.59581018519</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34298,10 +33386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:49</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44215.59570601852</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34373,10 +33459,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:45</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44215.59565972222</v>
       </c>
       <c r="I467" t="n">
         <v>4</v>
@@ -34452,10 +33536,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:44</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44215.59564814815</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34519,10 +33601,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:40</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44215.59560185186</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34586,10 +33666,8 @@
           <t>3970914317</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:38</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44215.5955787037</v>
       </c>
       <c r="I470" t="n">
         <v>6</v>
@@ -34661,10 +33739,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:34</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44215.59553240741</v>
       </c>
       <c r="I471" t="n">
         <v>22</v>
@@ -34728,10 +33804,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:25</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44215.59542824074</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34795,10 +33869,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:18</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44215.59534722222</v>
       </c>
       <c r="I473" t="n">
         <v>2</v>
@@ -34862,10 +33934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:14</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44215.59530092592</v>
       </c>
       <c r="I474" t="n">
         <v>2</v>
@@ -34929,10 +33999,8 @@
           <t>3970913779</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:09</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44215.59524305556</v>
       </c>
       <c r="I475" t="n">
         <v>6</v>
@@ -35004,10 +34072,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:17:07</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44215.59521990741</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35075,10 +34141,8 @@
           <t>3970904978</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:16:46</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44215.59497685185</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35154,10 +34218,8 @@
           <t>3970913358</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:16:43</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44215.59494212963</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35229,10 +34291,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:16:31</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44215.59480324074</v>
       </c>
       <c r="I479" t="n">
         <v>3</v>
@@ -35300,10 +34360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:16:28</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44215.59476851852</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35371,10 +34429,8 @@
           <t>3970908742</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:16:06</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44215.59451388889</v>
       </c>
       <c r="I481" t="n">
         <v>8</v>
@@ -35446,10 +34502,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:15:23</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44215.5940162037</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35525,10 +34579,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:15:23</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44215.5940162037</v>
       </c>
       <c r="I483" t="n">
         <v>2</v>
@@ -35604,10 +34656,8 @@
           <t>3970903340</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:15:16</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44215.59393518518</v>
       </c>
       <c r="I484" t="n">
         <v>4</v>
@@ -35683,10 +34733,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:14:58</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44215.59372685185</v>
       </c>
       <c r="I485" t="n">
         <v>7</v>
@@ -35758,10 +34806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:14:56</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44215.5937037037</v>
       </c>
       <c r="I486" t="n">
         <v>622</v>
@@ -35834,10 +34880,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:14:52</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44215.59365740741</v>
       </c>
       <c r="I487" t="n">
         <v>8</v>
@@ -35905,10 +34949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:14:48</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44215.59361111111</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35976,10 +35018,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:14:15</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44215.59322916667</v>
       </c>
       <c r="I489" t="n">
         <v>3</v>
@@ -36043,10 +35083,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:13:53</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44215.59297453704</v>
       </c>
       <c r="I490" t="n">
         <v>11</v>
@@ -36114,10 +35152,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:13:51</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44215.59295138889</v>
       </c>
       <c r="I491" t="n">
         <v>4</v>
@@ -36193,10 +35229,8 @@
           <t>3970910060</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:13:31</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44215.59271990741</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36260,10 +35294,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:13:17</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44215.59255787037</v>
       </c>
       <c r="I493" t="n">
         <v>5</v>
@@ -36339,10 +35371,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:13:13</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44215.59251157408</v>
       </c>
       <c r="I494" t="n">
         <v>3</v>
@@ -36418,10 +35448,8 @@
           <t>3970905725</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:13:10</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44215.59247685185</v>
       </c>
       <c r="I495" t="n">
         <v>2</v>
@@ -36489,10 +35517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:12:43</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44215.59216435185</v>
       </c>
       <c r="I496" t="n">
         <v>9</v>
@@ -36568,10 +35594,8 @@
           <t>3970894680</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:12:07</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44215.59174768518</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36647,10 +35671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:11:58</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44215.59164351852</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36722,10 +35744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:11:45</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44215.59149305556</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -36797,10 +35817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:11:32</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44215.59134259259</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36876,10 +35894,8 @@
           <t>3970894026</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:11:29</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44215.59130787037</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36943,10 +35959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:11:17</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44215.59116898148</v>
       </c>
       <c r="I502" t="n">
         <v>19</v>
@@ -37022,10 +36036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:11:16</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44215.59115740741</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37093,10 +36105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:11:04</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44215.59101851852</v>
       </c>
       <c r="I504" t="n">
         <v>3</v>
@@ -37172,10 +36182,8 @@
           <t>3970888768</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:11:01</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44215.5909837963</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37247,10 +36255,8 @@
           <t>3970888664</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:10:55</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44215.59091435185</v>
       </c>
       <c r="I506" t="n">
         <v>43</v>
@@ -37318,10 +36324,8 @@
           <t>3970897330</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:10:52</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44215.59087962963</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37397,10 +36401,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:10:43</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44215.59077546297</v>
       </c>
       <c r="I508" t="n">
         <v>21</v>
@@ -37476,10 +36478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:10:36</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44215.59069444444</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37547,10 +36547,8 @@
           <t>3970893097</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:10:34</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44215.5906712963</v>
       </c>
       <c r="I510" t="n">
         <v>8</v>
@@ -37631,10 +36629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:10:07</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44215.5903587963</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37710,10 +36706,8 @@
           <t>3970887727</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:10:03</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44215.5903125</v>
       </c>
       <c r="I512" t="n">
         <v>208</v>
@@ -37785,10 +36779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:10:02</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44215.59030092593</v>
       </c>
       <c r="I513" t="n">
         <v>6</v>
@@ -37852,10 +36844,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:09:53</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44215.59019675926</v>
       </c>
       <c r="I514" t="n">
         <v>84</v>
@@ -37924,10 +36914,8 @@
           <t>3970887448</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:09:48</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44215.59013888889</v>
       </c>
       <c r="I515" t="n">
         <v>101</v>
@@ -37991,10 +36979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:09:45</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44215.59010416667</v>
       </c>
       <c r="I516" t="n">
         <v>18</v>
@@ -38058,10 +37044,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:09:45</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44215.59010416667</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38129,10 +37113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:09:40</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44215.5900462963</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38200,10 +37182,8 @@
           <t>3970891883</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:09:23</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44215.58984953703</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38271,10 +37251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:09:21</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44215.58982638889</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38334,10 +37312,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:09:07</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44215.58966435185</v>
       </c>
       <c r="I521" t="n">
         <v>15</v>
@@ -38413,10 +37389,8 @@
           <t>3970891194</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:08:47</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44215.58943287037</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38484,10 +37458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:08:38</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44215.5893287037</v>
       </c>
       <c r="I523" t="n">
         <v>26</v>
@@ -38551,10 +37523,8 @@
           <t>3970884045</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:08:24</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44215.58916666666</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38622,10 +37592,8 @@
           <t>3970884712</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:08:23</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44215.5891550926</v>
       </c>
       <c r="I525" t="n">
         <v>2</v>
@@ -38689,10 +37657,8 @@
           <t>3970885708</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:08:14</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44215.58905092593</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38760,10 +37726,8 @@
           <t>3970884146</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:49</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44215.58876157407</v>
       </c>
       <c r="I527" t="n">
         <v>8</v>
@@ -38827,10 +37791,8 @@
           <t>3970884045</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:43</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44215.58869212963</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38902,10 +37864,8 @@
           <t>3970884028</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:42</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44215.58868055556</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38973,10 +37933,8 @@
           <t>3970879958</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:31</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44215.58855324074</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39044,10 +38002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:29</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44215.58853009259</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39115,10 +38071,8 @@
           <t>3970879833</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:24</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44215.58847222223</v>
       </c>
       <c r="I532" t="n">
         <v>2</v>
@@ -39194,10 +38148,8 @@
           <t>3970874696</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:21</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44215.5884375</v>
       </c>
       <c r="I533" t="n">
         <v>5</v>
@@ -39273,10 +38225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:14</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44215.58835648148</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39344,10 +38294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:07:04</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44215.58824074074</v>
       </c>
       <c r="I535" t="n">
         <v>10</v>
@@ -39411,10 +38359,8 @@
           <t>3970883263</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:58</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44215.58817129629</v>
       </c>
       <c r="I536" t="n">
         <v>3</v>
@@ -39478,10 +38424,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:51</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44215.58809027778</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39545,10 +38489,8 @@
           <t>3970883097</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:49</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44215.58806712963</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39620,10 +38562,8 @@
           <t>3970873997</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:43</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44215.58799768519</v>
       </c>
       <c r="I539" t="n">
         <v>5</v>
@@ -39691,10 +38631,8 @@
           <t>3970873925</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:38</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44215.58793981482</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39766,10 +38704,8 @@
           <t>3970882684</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:25</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44215.58778935186</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39841,10 +38777,8 @@
           <t>3970882492</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:14</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44215.58766203704</v>
       </c>
       <c r="I542" t="n">
         <v>3</v>
@@ -39908,10 +38842,8 @@
           <t>3970873328</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:04</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44215.58754629629</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39987,10 +38919,8 @@
           <t>3970878292</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:02</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44215.58752314815</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40054,10 +38984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:06:01</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44215.58751157407</v>
       </c>
       <c r="I545" t="n">
         <v>70</v>
@@ -40129,10 +39057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:43</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44215.58730324074</v>
       </c>
       <c r="I546" t="n">
         <v>11</v>
@@ -40200,10 +39126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:38</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44215.58724537037</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40267,10 +39191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:33</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44215.5871875</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40338,10 +39260,8 @@
           <t>3970881622</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:26</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44215.58710648148</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40413,10 +39333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:19</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44215.58702546296</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40494,10 +39412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:11</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44215.58693287037</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40569,10 +39485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:10</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44215.58692129629</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40636,10 +39550,8 @@
           <t>3970872263</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:03</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44215.58684027778</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40707,10 +39619,8 @@
           <t>3970877205</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:05:01</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44215.58681712963</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40786,10 +39696,8 @@
           <t>3970871994</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:48</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44215.58666666667</v>
       </c>
       <c r="I555" t="n">
         <v>2</v>
@@ -40865,10 +39773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:47</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44215.58665509259</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40944,10 +39850,8 @@
           <t>3970880857</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:42</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44215.58659722222</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41023,10 +39927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:36</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44215.58652777778</v>
       </c>
       <c r="I558" t="n">
         <v>8</v>
@@ -41094,10 +39996,8 @@
           <t>3970876728</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:35</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44215.5865162037</v>
       </c>
       <c r="I559" t="n">
         <v>4</v>
@@ -41173,10 +40073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:26</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44215.58641203704</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -41244,10 +40142,8 @@
           <t>3970876497</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:22</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44215.58636574074</v>
       </c>
       <c r="I561" t="n">
         <v>29</v>
@@ -41323,10 +40219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:20</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44215.58634259259</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41402,10 +40296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:19</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44215.58633101852</v>
       </c>
       <c r="I563" t="n">
         <v>66</v>
@@ -41473,10 +40365,8 @@
           <t>3970876238</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:04:08</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44215.5862037037</v>
       </c>
       <c r="I564" t="n">
         <v>5</v>
@@ -41544,10 +40434,8 @@
           <t>3970869999</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:03:55</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44215.58605324074</v>
       </c>
       <c r="I565" t="n">
         <v>4</v>
@@ -41611,10 +40499,8 @@
           <t>3970870725</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:03:36</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44215.58583333333</v>
       </c>
       <c r="I566" t="n">
         <v>14</v>
@@ -41678,10 +40564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:03:33</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44215.58579861111</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -41757,10 +40641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:03:30</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44215.58576388889</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41828,10 +40710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:03:28</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44215.58574074074</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -41903,10 +40783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:03:17</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44215.58561342592</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41979,10 +40857,8 @@
           <t>3970864915</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:56</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44215.58537037037</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42046,10 +40922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:55</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44215.5853587963</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -42121,10 +40995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:52</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44215.58532407408</v>
       </c>
       <c r="I573" t="n">
         <v>4</v>
@@ -42196,10 +41068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:41</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44215.58519675926</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42267,10 +41137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:39</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44215.58517361111</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42334,10 +41202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:39</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44215.58517361111</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42405,10 +41271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:37</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44215.58515046296</v>
       </c>
       <c r="I577" t="n">
         <v>3</v>
@@ -42480,10 +41344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:37</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44215.58515046296</v>
       </c>
       <c r="I578" t="n">
         <v>1</v>
@@ -42555,10 +41417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:37</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44215.58515046296</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42630,10 +41490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:33</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44215.58510416667</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42709,10 +41567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:33</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44215.58510416667</v>
       </c>
       <c r="I581" t="n">
         <v>1</v>
@@ -42788,10 +41644,8 @@
           <t>3970859609</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:31</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44215.58508101852</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42863,10 +41717,8 @@
           <t>3970864367</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:26</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44215.58502314815</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42938,10 +41790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:25</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44215.58501157408</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43017,10 +41867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:18</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44215.58493055555</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -43096,10 +41944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:18</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44215.58493055555</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43175,10 +42021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:16</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44215.58490740741</v>
       </c>
       <c r="I587" t="n">
         <v>32</v>
@@ -43242,10 +42086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:11</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44215.58484953704</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43309,10 +42151,8 @@
           <t>3970864053</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:09</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44215.58482638889</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43376,10 +42216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:02:06</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44215.58479166667</v>
       </c>
       <c r="I590" t="n">
         <v>63</v>
@@ -43447,10 +42285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:59</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44215.58471064815</v>
       </c>
       <c r="I591" t="n">
         <v>382</v>
@@ -43523,10 +42359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:54</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44215.58465277778</v>
       </c>
       <c r="I592" t="n">
         <v>343</v>
@@ -43602,10 +42436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:54</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44215.58465277778</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43673,10 +42505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:49</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44215.58459490741</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43744,10 +42574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:48</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44215.58458333334</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43816,10 +42644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:40</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44215.58449074074</v>
       </c>
       <c r="I596" t="n">
         <v>1</v>
@@ -43883,10 +42709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:37</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44215.58445601852</v>
       </c>
       <c r="I597" t="n">
         <v>192</v>
@@ -43962,10 +42786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:31</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44215.58438657408</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44041,10 +42863,8 @@
           <t>3970863273</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:25</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44215.58431712963</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44116,10 +42936,8 @@
           <t>3970867418</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:22</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44215.58428240741</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44191,10 +43009,8 @@
           <t>3970863168</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:19</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44215.58424768518</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44266,10 +43082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:17</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44215.58422453704</v>
       </c>
       <c r="I602" t="n">
         <v>780</v>
@@ -44337,10 +43151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:14</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44215.58418981481</v>
       </c>
       <c r="I603" t="n">
         <v>1</v>
@@ -44412,10 +43224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:08</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44215.58412037037</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44483,10 +43293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:01</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44215.58403935185</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44562,10 +43370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:01:00</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44215.58402777778</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44638,10 +43444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:58</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44215.58400462963</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44713,10 +43517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:56</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44215.58398148148</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44780,10 +43582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:55</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44215.58396990741</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44847,10 +43647,8 @@
           <t>3970866859</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:52</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44215.58393518518</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44922,10 +43720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:46</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44215.58386574074</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44989,10 +43785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:43</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44215.58383101852</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45068,10 +43862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:33</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44215.58371527777</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45135,10 +43927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:33</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44215.58371527777</v>
       </c>
       <c r="I614" t="n">
         <v>18</v>
@@ -45214,10 +44004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:33</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44215.58371527777</v>
       </c>
       <c r="I615" t="n">
         <v>1</v>
@@ -45293,10 +44081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:28</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44215.58365740741</v>
       </c>
       <c r="I616" t="n">
         <v>1</v>
@@ -45372,10 +44158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:24</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44215.58361111111</v>
       </c>
       <c r="I617" t="n">
         <v>1</v>
@@ -45451,10 +44235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:23</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44215.58359953704</v>
       </c>
       <c r="I618" t="n">
         <v>90</v>
@@ -45530,10 +44312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-01-19 14:00:12</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44215.58347222222</v>
       </c>
       <c r="I619" t="n">
         <v>22</v>
